--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 1.7 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 1.7 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -859,6 +859,105 @@
       </c>
       <c r="D42">
         <v>27.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>28.5</v>
+      </c>
+      <c r="D43">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>28.2</v>
+      </c>
+      <c r="D44">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>28.1</v>
+      </c>
+      <c r="D45">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>28.3</v>
+      </c>
+      <c r="D46">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>28.5</v>
+      </c>
+      <c r="D47">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>28.2</v>
+      </c>
+      <c r="D48">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>28.9</v>
+      </c>
+      <c r="D49">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>28.1</v>
+      </c>
+      <c r="D50">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>28.7</v>
+      </c>
+      <c r="D51">
+        <v>28.1</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -900,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>30.33902439024391</v>
+        <v>29.988</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -939,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30.2</v>
+        <v>29.882</v>
       </c>
     </row>
   </sheetData>
@@ -1052,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9772234341918608</v>
+        <v>0.9765271242246155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1065,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9772234341918608</v>
+        <v>0.9765271242246155</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1094,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.481442089765424</v>
+        <v>3.237260116398509</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1107,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.489340911977504</v>
+        <v>3.228867875138597</v>
       </c>
     </row>
   </sheetData>
@@ -1117,7 +1216,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1147,6 +1246,30 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>29.9</v>
       </c>
     </row>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 1.7 мм/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/БПИ толщина 1.7 мм/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -958,6 +958,28 @@
       </c>
       <c r="D51">
         <v>28.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>27.8</v>
+      </c>
+      <c r="D52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>27.6</v>
+      </c>
+      <c r="D53">
+        <v>27.9</v>
       </c>
     </row>
   </sheetData>
@@ -983,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -999,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1025,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.988</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1038,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.882</v>
+        <v>29.80769230769231</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.9765271242246155</v>
+        <v>0.9766882170161345</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1164,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9765271242246155</v>
+        <v>0.9766882170161345</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1193,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.237260116398509</v>
+        <v>3.204163957519444</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1206,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.228867875138597</v>
+        <v>3.187096912081352</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1246,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1254,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1262,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1270,6 +1292,14 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>29.9</v>
       </c>
     </row>
